--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -112,22 +112,22 @@
     <t>NILAI TOTAL</t>
   </si>
   <si>
+    <t>Tanjung Pinang</t>
+  </si>
+  <si>
+    <t>Kantor Pusat</t>
+  </si>
+  <si>
+    <t>Belawan</t>
+  </si>
+  <si>
+    <t>Dumai</t>
+  </si>
+  <si>
+    <t>TPK Belawan</t>
+  </si>
+  <si>
     <t>Pekan Baru</t>
-  </si>
-  <si>
-    <t>Kantor Pusat</t>
-  </si>
-  <si>
-    <t>Belawan</t>
-  </si>
-  <si>
-    <t>Dumai</t>
-  </si>
-  <si>
-    <t>TPK Belawan</t>
-  </si>
-  <si>
-    <t>Tanjung Pinang</t>
   </si>
   <si>
     <t>Tanjung Balai Karimun</t>
@@ -168,12 +168,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,17 +233,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -262,10 +294,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -277,36 +334,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,9 +343,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,56 +363,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -395,7 +388,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,36 +421,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.1"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -470,49 +445,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF1BABA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,139 +619,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,17 +772,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -849,6 +821,32 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -865,188 +863,153 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="41" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="13" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="14" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="16" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,15 +1041,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="33" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="33" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="33" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1097,72 +1102,30 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="33" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="33" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="4" xfId="33" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="7" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" xfId="45" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="10" borderId="5" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1492,10 +1455,10 @@
   <sheetPr/>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -1599,7 +1562,7 @@
         <v>99</v>
       </c>
       <c r="D2" s="11">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E2" s="14">
         <v>52</v>
@@ -1651,7 +1614,7 @@
       </c>
       <c r="U2" s="39">
         <f t="shared" ref="U2" si="0">AVERAGE(D2,I2,K2,N2,Q2,T2)</f>
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1710,12 +1673,12 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -119,33 +119,36 @@
     <t xml:space="preserve">NILAI TOTAL</t>
   </si>
   <si>
+    <t xml:space="preserve">Tembilahan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kantor Pusat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dumai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TPK Belawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanjung Pinang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pekan Baru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanjung Balai Karimun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuala Tanjung</t>
+  </si>
+  <si>
     <t xml:space="preserve">Batam</t>
   </si>
   <si>
-    <t xml:space="preserve">Kantor Pusat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dumai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPK Belawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanjung Pinang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pekan Baru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanjung Balai Karimun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuala Tanjung</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sei Pakning</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tanjung Balai Asahan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tembilahan</t>
   </si>
   <si>
     <t xml:space="preserve">Gunung Sitoli</t>
@@ -703,10 +703,10 @@
   </sheetPr>
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -949,37 +949,37 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="39" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="39" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
